--- a/questions/Assignment7-ClientCommandTableForA7 .xlsx
+++ b/questions/Assignment7-ClientCommandTableForA7 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aditya.vny95\SimplicityStudio\v4_workspace\ecen5823-assignment7-adityavarshney100\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64E55AA-71A7-44BD-A2EA-788F1BF56D92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A950D4-FF27-4A0B-A375-A26AE580E2A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="1356" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>Client - Temp = 31</t>
+  </si>
+  <si>
+    <t>gecko_cmd_le_gap_set_conn_parameters</t>
+  </si>
+  <si>
+    <t>gecko_cmd_gatt_discover_characteristics_by_uuid</t>
+  </si>
+  <si>
+    <t>gecko_cmd_le_gap_end_procedure</t>
+  </si>
+  <si>
+    <t>gecko_cmd_gatt_set_characteristic_notification</t>
   </si>
 </sst>
 </file>
@@ -1646,8 +1658,8 @@
   </sheetPr>
   <dimension ref="B1:F45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="13.5" customHeight="1"/>
@@ -1759,9 +1771,7 @@
       <c r="C9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
         <v>35</v>
       </c>
@@ -1772,8 +1782,12 @@
     <row r="10" spans="2:6" ht="13.5" customHeight="1">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" ht="13.5" customHeight="1">
@@ -1908,14 +1922,18 @@
       <c r="B23" s="19"/>
       <c r="C23" s="18"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="13"/>
+      <c r="E23" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" ht="13.5" customHeight="1">
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="F24" s="10" t="s">
         <v>44</v>
       </c>
@@ -1924,7 +1942,9 @@
       <c r="B25" s="19"/>
       <c r="C25" s="18"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" ht="25.5" customHeight="1">
